--- a/public/stylesheets/booth-excel-seed.xlsx
+++ b/public/stylesheets/booth-excel-seed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heondo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimseonhee126/Desktop/develop/js/INU-Festival-BE/public/stylesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4918009-91A7-0041-9AE0-2C2218F565B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D496A3E-9DA5-1E40-B1A9-CE7081573FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10620" yWindow="760" windowWidth="19620" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="booth-csv-seed" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="226">
   <si>
     <t>주점</t>
   </si>
@@ -700,6 +699,30 @@
   </si>
   <si>
     <t>좋아요</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>마커</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>markerBlack</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>markerBlue</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>markerYellow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>markerPink</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>markerGreen</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1672,10 +1695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D64" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1685,7 +1708,7 @@
     <col min="4" max="4" width="93.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>215</v>
       </c>
@@ -1701,8 +1724,11 @@
       <c r="E1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1717,10 +1743,13 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(1,1000)</f>
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>231</v>
+      </c>
+      <c r="F2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1735,10 +1764,13 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="0">RANDBETWEEN(1,1000)</f>
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1753,10 +1785,13 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>495</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>814</v>
+      </c>
+      <c r="F4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1771,10 +1806,13 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>898</v>
+      </c>
+      <c r="F5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1789,10 +1827,13 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>367</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>299</v>
+      </c>
+      <c r="F6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1807,10 +1848,13 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>577</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>919</v>
+      </c>
+      <c r="F7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1825,10 +1869,13 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>949</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>92</v>
+      </c>
+      <c r="F8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1843,10 +1890,13 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>766</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1861,10 +1911,13 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>701</v>
+      </c>
+      <c r="F10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1879,10 +1932,13 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>659</v>
+      </c>
+      <c r="F11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1897,10 +1953,13 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>907</v>
+      </c>
+      <c r="F12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1915,10 +1974,13 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>646</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>180</v>
+      </c>
+      <c r="F13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1933,10 +1995,13 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>513</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>817</v>
+      </c>
+      <c r="F14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1951,10 +2016,13 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>747</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>720</v>
+      </c>
+      <c r="F15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -1969,10 +2037,13 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>760</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>876</v>
+      </c>
+      <c r="F16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1987,10 +2058,13 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>943</v>
+      </c>
+      <c r="F17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -2005,10 +2079,13 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>940</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>978</v>
+      </c>
+      <c r="F18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -2023,10 +2100,13 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>510</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>596</v>
+      </c>
+      <c r="F19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -2041,10 +2121,13 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>816</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>615</v>
+      </c>
+      <c r="F20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>56</v>
       </c>
@@ -2059,10 +2142,13 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>245</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>275</v>
+      </c>
+      <c r="F21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -2077,10 +2163,13 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>270</v>
+      </c>
+      <c r="F22" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -2095,10 +2184,13 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>676</v>
+      </c>
+      <c r="F23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -2113,10 +2205,13 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>808</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>762</v>
+      </c>
+      <c r="F24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -2131,10 +2226,13 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>391</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>272</v>
+      </c>
+      <c r="F25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -2149,10 +2247,13 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>785</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>126</v>
+      </c>
+      <c r="F26" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -2167,10 +2268,13 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>809</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>529</v>
+      </c>
+      <c r="F27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -2185,10 +2289,13 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>223</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>540</v>
+      </c>
+      <c r="F28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>72</v>
       </c>
@@ -2203,10 +2310,13 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>795</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>307</v>
+      </c>
+      <c r="F29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>74</v>
       </c>
@@ -2221,10 +2331,13 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>410</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>397</v>
+      </c>
+      <c r="F30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -2239,10 +2352,13 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>467</v>
+      </c>
+      <c r="F31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -2257,10 +2373,13 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>262</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -2275,10 +2394,13 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>293</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>829</v>
+      </c>
+      <c r="F33" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -2293,10 +2415,13 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>556</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>935</v>
+      </c>
+      <c r="F34" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>87</v>
       </c>
@@ -2311,10 +2436,13 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>781</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>713</v>
+      </c>
+      <c r="F35" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>90</v>
       </c>
@@ -2329,10 +2457,13 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>363</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>431</v>
+      </c>
+      <c r="F36" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>93</v>
       </c>
@@ -2347,10 +2478,13 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>985</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>925</v>
+      </c>
+      <c r="F37" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>96</v>
       </c>
@@ -2365,10 +2499,13 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>971</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>294</v>
+      </c>
+      <c r="F38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>99</v>
       </c>
@@ -2383,10 +2520,13 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>537</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>202</v>
+      </c>
+      <c r="F39" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -2401,10 +2541,13 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>466</v>
+      </c>
+      <c r="F40" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>105</v>
       </c>
@@ -2419,10 +2562,13 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>275</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>638</v>
+      </c>
+      <c r="F41" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>108</v>
       </c>
@@ -2437,10 +2583,13 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>948</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>998</v>
+      </c>
+      <c r="F42" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>111</v>
       </c>
@@ -2455,10 +2604,13 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>633</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>238</v>
+      </c>
+      <c r="F43" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>114</v>
       </c>
@@ -2473,10 +2625,13 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>777</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>329</v>
+      </c>
+      <c r="F44" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>117</v>
       </c>
@@ -2491,10 +2646,13 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>831</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>1000</v>
+      </c>
+      <c r="F45" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>120</v>
       </c>
@@ -2509,10 +2667,13 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>95</v>
+      </c>
+      <c r="F46" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>123</v>
       </c>
@@ -2527,10 +2688,13 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>439</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>208</v>
+      </c>
+      <c r="F47" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>127</v>
       </c>
@@ -2545,10 +2709,13 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>378</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>951</v>
+      </c>
+      <c r="F48" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>129</v>
       </c>
@@ -2563,10 +2730,13 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>704</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>64</v>
+      </c>
+      <c r="F49" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>132</v>
       </c>
@@ -2581,10 +2751,13 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>814</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>414</v>
+      </c>
+      <c r="F50" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>135</v>
       </c>
@@ -2599,10 +2772,13 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>517</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>41</v>
+      </c>
+      <c r="F51" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>138</v>
       </c>
@@ -2617,10 +2793,13 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>141</v>
       </c>
@@ -2635,10 +2814,13 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>257</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>208</v>
+      </c>
+      <c r="F53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>144</v>
       </c>
@@ -2653,10 +2835,13 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>838</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>644</v>
+      </c>
+      <c r="F54" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>147</v>
       </c>
@@ -2671,10 +2856,13 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>275</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>834</v>
+      </c>
+      <c r="F55" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>150</v>
       </c>
@@ -2689,10 +2877,13 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>667</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>556</v>
+      </c>
+      <c r="F56" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>154</v>
       </c>
@@ -2707,10 +2898,13 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>478</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>617</v>
+      </c>
+      <c r="F57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>157</v>
       </c>
@@ -2725,10 +2919,13 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>665</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>446</v>
+      </c>
+      <c r="F58" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>158</v>
       </c>
@@ -2743,10 +2940,13 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>846</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>56</v>
+      </c>
+      <c r="F59" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>160</v>
       </c>
@@ -2761,10 +2961,13 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>991</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>578</v>
+      </c>
+      <c r="F60" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>162</v>
       </c>
@@ -2779,10 +2982,13 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>492</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>872</v>
+      </c>
+      <c r="F61" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>164</v>
       </c>
@@ -2797,10 +3003,13 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>275</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="F62" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>166</v>
       </c>
@@ -2815,10 +3024,13 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>599</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>827</v>
+      </c>
+      <c r="F63" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>168</v>
       </c>
@@ -2833,10 +3045,13 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>149</v>
+      </c>
+      <c r="F64" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>170</v>
       </c>
@@ -2851,10 +3066,13 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>469</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="F65" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>172</v>
       </c>
@@ -2869,10 +3087,13 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="0"/>
-        <v>735</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>370</v>
+      </c>
+      <c r="F66" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>174</v>
       </c>
@@ -2887,10 +3108,13 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E78" ca="1" si="1">RANDBETWEEN(1,1000)</f>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>727</v>
+      </c>
+      <c r="F67" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>176</v>
       </c>
@@ -2905,10 +3129,13 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>685</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>871</v>
+      </c>
+      <c r="F68" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>178</v>
       </c>
@@ -2923,10 +3150,13 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>788</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>678</v>
+      </c>
+      <c r="F69" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>180</v>
       </c>
@@ -2941,10 +3171,13 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>230</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>245</v>
+      </c>
+      <c r="F70" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>182</v>
       </c>
@@ -2959,10 +3192,13 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>805</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>981</v>
+      </c>
+      <c r="F71" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>184</v>
       </c>
@@ -2977,10 +3213,13 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>242</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>705</v>
+      </c>
+      <c r="F72" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>186</v>
       </c>
@@ -2995,10 +3234,13 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>789</v>
+      </c>
+      <c r="F73" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>201</v>
       </c>
@@ -3013,10 +3255,13 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>648</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>577</v>
+      </c>
+      <c r="F74" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>203</v>
       </c>
@@ -3031,10 +3276,13 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
+        <v>903</v>
+      </c>
+      <c r="F75" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>205</v>
       </c>
@@ -3049,10 +3297,13 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>915</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F76" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>207</v>
       </c>
@@ -3067,10 +3318,13 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="1"/>
-        <v>309</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>683</v>
+      </c>
+      <c r="F77" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>209</v>
       </c>
@@ -3085,7 +3339,10 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>96</v>
+      </c>
+      <c r="F78" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/public/stylesheets/booth-excel-seed.xlsx
+++ b/public/stylesheets/booth-excel-seed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimseonhee126/Desktop/develop/js/INU-Festival-BE/public/stylesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D496A3E-9DA5-1E40-B1A9-CE7081573FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1601F6-D137-AB4C-A63B-F42F40700284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="16260" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="booth-csv-seed" sheetId="1" r:id="rId1"/>
@@ -1698,7 +1698,7 @@
   <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(1,1000)</f>
-        <v>231</v>
+        <v>934</v>
       </c>
       <c r="F2" t="s">
         <v>221</v>
@@ -1764,7 +1764,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="0">RANDBETWEEN(1,1000)</f>
-        <v>19</v>
+        <v>889</v>
       </c>
       <c r="F3" t="s">
         <v>221</v>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>814</v>
+        <v>940</v>
       </c>
       <c r="F4" t="s">
         <v>221</v>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>898</v>
+        <v>868</v>
       </c>
       <c r="F5" t="s">
         <v>221</v>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>299</v>
+        <v>405</v>
       </c>
       <c r="F6" t="s">
         <v>221</v>
@@ -1848,7 +1848,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>919</v>
+        <v>836</v>
       </c>
       <c r="F7" t="s">
         <v>221</v>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>494</v>
       </c>
       <c r="F8" t="s">
         <v>221</v>
@@ -1890,7 +1890,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>612</v>
       </c>
       <c r="F9" t="s">
         <v>221</v>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>701</v>
+        <v>554</v>
       </c>
       <c r="F10" t="s">
         <v>221</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>659</v>
+        <v>622</v>
       </c>
       <c r="F11" t="s">
         <v>221</v>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>907</v>
+        <v>405</v>
       </c>
       <c r="F12" t="s">
         <v>221</v>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>180</v>
+        <v>412</v>
       </c>
       <c r="F13" t="s">
         <v>221</v>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>817</v>
+        <v>993</v>
       </c>
       <c r="F14" t="s">
         <v>221</v>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>720</v>
+        <v>541</v>
       </c>
       <c r="F15" t="s">
         <v>221</v>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>876</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
         <v>221</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>943</v>
+        <v>587</v>
       </c>
       <c r="F17" t="s">
         <v>222</v>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>978</v>
+        <v>285</v>
       </c>
       <c r="F18" t="s">
         <v>222</v>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>596</v>
+        <v>541</v>
       </c>
       <c r="F19" t="s">
         <v>222</v>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>615</v>
+        <v>763</v>
       </c>
       <c r="F20" t="s">
         <v>222</v>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>275</v>
+        <v>788</v>
       </c>
       <c r="F21" t="s">
         <v>222</v>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>270</v>
+        <v>926</v>
       </c>
       <c r="F22" t="s">
         <v>222</v>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>676</v>
+        <v>630</v>
       </c>
       <c r="F23" t="s">
         <v>222</v>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>762</v>
+        <v>541</v>
       </c>
       <c r="F24" t="s">
         <v>222</v>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="F25" t="s">
         <v>222</v>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>126</v>
+        <v>568</v>
       </c>
       <c r="F26" t="s">
         <v>222</v>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>529</v>
+        <v>368</v>
       </c>
       <c r="F27" t="s">
         <v>222</v>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>540</v>
+        <v>346</v>
       </c>
       <c r="F28" t="s">
         <v>222</v>
@@ -2310,7 +2310,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>307</v>
+        <v>465</v>
       </c>
       <c r="F29" t="s">
         <v>222</v>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>397</v>
+        <v>588</v>
       </c>
       <c r="F30" t="s">
         <v>222</v>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>467</v>
+        <v>624</v>
       </c>
       <c r="F31" t="s">
         <v>222</v>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>238</v>
+        <v>405</v>
       </c>
       <c r="F32" t="s">
         <v>222</v>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>829</v>
+        <v>497</v>
       </c>
       <c r="F33" t="s">
         <v>222</v>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>935</v>
+        <v>114</v>
       </c>
       <c r="F34" t="s">
         <v>222</v>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>713</v>
+        <v>665</v>
       </c>
       <c r="F35" t="s">
         <v>222</v>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>431</v>
+        <v>239</v>
       </c>
       <c r="F36" t="s">
         <v>222</v>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>925</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
         <v>222</v>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>294</v>
+        <v>856</v>
       </c>
       <c r="F38" t="s">
         <v>222</v>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>202</v>
+        <v>395</v>
       </c>
       <c r="F39" t="s">
         <v>222</v>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>466</v>
+        <v>687</v>
       </c>
       <c r="F40" t="s">
         <v>222</v>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>638</v>
+        <v>928</v>
       </c>
       <c r="F41" t="s">
         <v>222</v>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>998</v>
+        <v>315</v>
       </c>
       <c r="F42" t="s">
         <v>222</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>238</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s">
         <v>222</v>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>329</v>
+        <v>573</v>
       </c>
       <c r="F44" t="s">
         <v>222</v>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>1000</v>
+        <v>138</v>
       </c>
       <c r="F45" t="s">
         <v>222</v>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>779</v>
       </c>
       <c r="F46" t="s">
         <v>222</v>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>208</v>
+        <v>518</v>
       </c>
       <c r="F47" t="s">
         <v>223</v>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="F48" t="s">
         <v>223</v>
@@ -2730,7 +2730,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="F49" t="s">
         <v>223</v>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>414</v>
+        <v>363</v>
       </c>
       <c r="F50" t="s">
         <v>223</v>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>622</v>
       </c>
       <c r="F51" t="s">
         <v>223</v>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>324</v>
       </c>
       <c r="F52" t="s">
         <v>223</v>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F53" t="s">
         <v>223</v>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>644</v>
+        <v>159</v>
       </c>
       <c r="F54" t="s">
         <v>223</v>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>834</v>
+        <v>942</v>
       </c>
       <c r="F55" t="s">
         <v>223</v>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F56" t="s">
         <v>223</v>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>617</v>
+        <v>954</v>
       </c>
       <c r="F57" t="s">
         <v>222</v>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>446</v>
+        <v>964</v>
       </c>
       <c r="F58" t="s">
         <v>222</v>
@@ -2940,7 +2940,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>542</v>
       </c>
       <c r="F59" t="s">
         <v>222</v>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>578</v>
+        <v>194</v>
       </c>
       <c r="F60" t="s">
         <v>224</v>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>872</v>
+        <v>826</v>
       </c>
       <c r="F61" t="s">
         <v>224</v>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>430</v>
       </c>
       <c r="F62" t="s">
         <v>224</v>
@@ -3024,7 +3024,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>827</v>
+        <v>49</v>
       </c>
       <c r="F63" t="s">
         <v>224</v>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>149</v>
+        <v>682</v>
       </c>
       <c r="F64" t="s">
         <v>224</v>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>198</v>
+        <v>773</v>
       </c>
       <c r="F65" t="s">
         <v>224</v>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="0"/>
-        <v>370</v>
+        <v>59</v>
       </c>
       <c r="F66" t="s">
         <v>224</v>
@@ -3108,7 +3108,7 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E78" ca="1" si="1">RANDBETWEEN(1,1000)</f>
-        <v>727</v>
+        <v>970</v>
       </c>
       <c r="F67" t="s">
         <v>224</v>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>871</v>
+        <v>665</v>
       </c>
       <c r="F68" t="s">
         <v>224</v>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>678</v>
+        <v>309</v>
       </c>
       <c r="F69" t="s">
         <v>224</v>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>245</v>
+        <v>357</v>
       </c>
       <c r="F70" t="s">
         <v>224</v>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>981</v>
+        <v>805</v>
       </c>
       <c r="F71" t="s">
         <v>224</v>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>705</v>
+        <v>455</v>
       </c>
       <c r="F72" t="s">
         <v>224</v>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>789</v>
+        <v>718</v>
       </c>
       <c r="F73" t="s">
         <v>224</v>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>577</v>
+        <v>486</v>
       </c>
       <c r="F74" t="s">
         <v>225</v>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>903</v>
+        <v>560</v>
       </c>
       <c r="F75" t="s">
         <v>225</v>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>592</v>
       </c>
       <c r="F76" t="s">
         <v>225</v>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="1"/>
-        <v>683</v>
+        <v>252</v>
       </c>
       <c r="F77" t="s">
         <v>225</v>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>577</v>
       </c>
       <c r="F78" t="s">
         <v>225</v>

--- a/public/stylesheets/booth-excel-seed.xlsx
+++ b/public/stylesheets/booth-excel-seed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimseonhee126/Desktop/develop/js/INU-Festival-BE/public/stylesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1601F6-D137-AB4C-A63B-F42F40700284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43A3A8C-16E1-E842-96E2-FFAA48F1D7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="16260" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="233">
   <si>
     <t>주점</t>
   </si>
@@ -723,6 +723,33 @@
   </si>
   <si>
     <t>markerGreen</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>돗자리 대여존</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>돗자리 대여할 수 있는 공간</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>markerOrange</t>
+  </si>
+  <si>
+    <t>markerNavy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>markerOrange</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>markerPurple</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>markerRed</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -730,7 +757,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -885,6 +912,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1D1C1D"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -1316,8 +1351,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1695,10 +1736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1706,1643 +1747,1665 @@
     <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="21.140625" customWidth="1"/>
     <col min="4" max="4" width="93.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <f ca="1">RANDBETWEEN(1,1000)</f>
-        <v>934</v>
-      </c>
-      <c r="F2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <f t="shared" ref="E3:E66" ca="1" si="0">RANDBETWEEN(1,1000)</f>
-        <v>889</v>
-      </c>
-      <c r="F3" t="s">
+        <v>863</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>940</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>868</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6">
-        <f t="shared" ca="1" si="0"/>
-        <v>405</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="0"/>
-        <v>836</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>756</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E8">
-        <f t="shared" ca="1" si="0"/>
-        <v>494</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>956</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E9">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>363</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>977</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>526</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>526</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>707</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>615</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>616</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>782</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>627</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>482</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>197</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>751</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>551</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>652</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>729</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>588</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>611</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>715</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>514</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>864</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>341</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>219</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>879</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>963</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>994</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>332</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>886</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>944</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>997</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>223</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>473</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>618</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>355</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>642</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>453</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>181</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>468</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>261</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E60" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E62" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>151</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>684</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E64" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>378</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E65" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E66" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>564</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E67" s="1">
+        <f t="shared" ref="E67:E79" ca="1" si="1">RANDBETWEEN(1,1000)</f>
+        <v>550</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E68" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>230</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E69" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E70" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>358</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E71" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>913</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E72" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>904</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E73" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>690</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E74" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>298</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E75" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>703</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E76" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E77" s="1">
+        <f t="shared" ca="1" si="1"/>
         <v>612</v>
       </c>
-      <c r="F9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="0"/>
-        <v>554</v>
-      </c>
-      <c r="F10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="0"/>
-        <v>622</v>
-      </c>
-      <c r="F11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="F77" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E78" s="1">
+        <f t="shared" ca="1" si="1"/>
         <v>33</v>
       </c>
-      <c r="E12">
-        <f t="shared" ca="1" si="0"/>
-        <v>405</v>
-      </c>
-      <c r="F12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="0"/>
-        <v>412</v>
-      </c>
-      <c r="F13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ca="1" si="0"/>
-        <v>993</v>
-      </c>
-      <c r="F14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15">
-        <f t="shared" ca="1" si="0"/>
-        <v>541</v>
-      </c>
-      <c r="F15" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ca="1" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ca="1" si="0"/>
-        <v>587</v>
-      </c>
-      <c r="F17" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18">
-        <f t="shared" ca="1" si="0"/>
-        <v>285</v>
-      </c>
-      <c r="F18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19">
-        <f t="shared" ca="1" si="0"/>
-        <v>541</v>
-      </c>
-      <c r="F19" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ca="1" si="0"/>
-        <v>763</v>
-      </c>
-      <c r="F20" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21">
-        <f t="shared" ca="1" si="0"/>
-        <v>788</v>
-      </c>
-      <c r="F21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22">
-        <f t="shared" ca="1" si="0"/>
-        <v>926</v>
-      </c>
-      <c r="F22" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23">
-        <f t="shared" ca="1" si="0"/>
-        <v>630</v>
-      </c>
-      <c r="F23" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24">
-        <f t="shared" ca="1" si="0"/>
-        <v>541</v>
-      </c>
-      <c r="F24" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25">
-        <f t="shared" ca="1" si="0"/>
-        <v>301</v>
-      </c>
-      <c r="F25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26">
-        <f t="shared" ca="1" si="0"/>
-        <v>568</v>
-      </c>
-      <c r="F26" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27">
-        <f t="shared" ca="1" si="0"/>
-        <v>368</v>
-      </c>
-      <c r="F27" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28">
-        <f t="shared" ca="1" si="0"/>
-        <v>346</v>
-      </c>
-      <c r="F28" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29">
-        <f t="shared" ca="1" si="0"/>
-        <v>465</v>
-      </c>
-      <c r="F29" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
+      <c r="F78" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E79" s="1">
+        <f t="shared" ca="1" si="1"/>
         <v>74</v>
       </c>
-      <c r="B30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30">
-        <f t="shared" ca="1" si="0"/>
-        <v>588</v>
-      </c>
-      <c r="F30" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ca="1" si="0"/>
-        <v>624</v>
-      </c>
-      <c r="F31" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32">
-        <f t="shared" ca="1" si="0"/>
-        <v>405</v>
-      </c>
-      <c r="F32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" t="s">
-        <v>83</v>
-      </c>
-      <c r="E33">
-        <f t="shared" ca="1" si="0"/>
-        <v>497</v>
-      </c>
-      <c r="F33" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34">
-        <f t="shared" ca="1" si="0"/>
-        <v>114</v>
-      </c>
-      <c r="F34" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35">
-        <f t="shared" ca="1" si="0"/>
-        <v>665</v>
-      </c>
-      <c r="F35" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36">
-        <f t="shared" ca="1" si="0"/>
-        <v>239</v>
-      </c>
-      <c r="F36" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" t="s">
-        <v>95</v>
-      </c>
-      <c r="E37">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="F37" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" t="s">
-        <v>98</v>
-      </c>
-      <c r="E38">
-        <f t="shared" ca="1" si="0"/>
-        <v>856</v>
-      </c>
-      <c r="F38" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>99</v>
-      </c>
-      <c r="B39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" t="s">
-        <v>101</v>
-      </c>
-      <c r="E39">
-        <f t="shared" ca="1" si="0"/>
-        <v>395</v>
-      </c>
-      <c r="F39" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40">
-        <f t="shared" ca="1" si="0"/>
-        <v>687</v>
-      </c>
-      <c r="F40" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>105</v>
-      </c>
-      <c r="B41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41">
-        <f t="shared" ca="1" si="0"/>
-        <v>928</v>
-      </c>
-      <c r="F41" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>108</v>
-      </c>
-      <c r="B42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" t="s">
-        <v>110</v>
-      </c>
-      <c r="E42">
-        <f t="shared" ca="1" si="0"/>
-        <v>315</v>
-      </c>
-      <c r="F42" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>111</v>
-      </c>
-      <c r="B43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" t="s">
-        <v>112</v>
-      </c>
-      <c r="D43" t="s">
-        <v>113</v>
-      </c>
-      <c r="E43">
-        <f t="shared" ca="1" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="F43" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>114</v>
-      </c>
-      <c r="B44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" t="s">
-        <v>116</v>
-      </c>
-      <c r="E44">
-        <f t="shared" ca="1" si="0"/>
-        <v>573</v>
-      </c>
-      <c r="F44" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>117</v>
-      </c>
-      <c r="B45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" t="s">
-        <v>118</v>
-      </c>
-      <c r="D45" t="s">
-        <v>119</v>
-      </c>
-      <c r="E45">
-        <f t="shared" ca="1" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="F45" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>120</v>
-      </c>
-      <c r="B46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" t="s">
-        <v>121</v>
-      </c>
-      <c r="D46" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46">
-        <f t="shared" ca="1" si="0"/>
-        <v>779</v>
-      </c>
-      <c r="F46" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>123</v>
-      </c>
-      <c r="B47" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" t="s">
-        <v>125</v>
-      </c>
-      <c r="D47" t="s">
-        <v>126</v>
-      </c>
-      <c r="E47">
-        <f t="shared" ca="1" si="0"/>
-        <v>518</v>
-      </c>
-      <c r="F47" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
-        <v>127</v>
-      </c>
-      <c r="B48" t="s">
-        <v>124</v>
-      </c>
-      <c r="C48" t="s">
-        <v>153</v>
-      </c>
-      <c r="D48" t="s">
-        <v>128</v>
-      </c>
-      <c r="E48">
-        <f t="shared" ca="1" si="0"/>
-        <v>944</v>
-      </c>
-      <c r="F48" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
-        <v>129</v>
-      </c>
-      <c r="B49" t="s">
-        <v>124</v>
-      </c>
-      <c r="C49" t="s">
-        <v>130</v>
-      </c>
-      <c r="D49" t="s">
-        <v>131</v>
-      </c>
-      <c r="E49">
-        <f t="shared" ca="1" si="0"/>
-        <v>131</v>
-      </c>
-      <c r="F49" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
-        <v>132</v>
-      </c>
-      <c r="B50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C50" t="s">
-        <v>133</v>
-      </c>
-      <c r="D50" t="s">
-        <v>134</v>
-      </c>
-      <c r="E50">
-        <f t="shared" ca="1" si="0"/>
-        <v>363</v>
-      </c>
-      <c r="F50" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
-        <v>135</v>
-      </c>
-      <c r="B51" t="s">
-        <v>124</v>
-      </c>
-      <c r="C51" t="s">
-        <v>136</v>
-      </c>
-      <c r="D51" t="s">
-        <v>137</v>
-      </c>
-      <c r="E51">
-        <f t="shared" ca="1" si="0"/>
-        <v>622</v>
-      </c>
-      <c r="F51" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" t="s">
-        <v>138</v>
-      </c>
-      <c r="B52" t="s">
-        <v>124</v>
-      </c>
-      <c r="C52" t="s">
-        <v>139</v>
-      </c>
-      <c r="D52" t="s">
-        <v>140</v>
-      </c>
-      <c r="E52">
-        <f t="shared" ca="1" si="0"/>
-        <v>324</v>
-      </c>
-      <c r="F52" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" t="s">
-        <v>141</v>
-      </c>
-      <c r="B53" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" t="s">
-        <v>142</v>
-      </c>
-      <c r="D53" t="s">
-        <v>143</v>
-      </c>
-      <c r="E53">
-        <f t="shared" ca="1" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="F53" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" t="s">
-        <v>144</v>
-      </c>
-      <c r="B54" t="s">
-        <v>124</v>
-      </c>
-      <c r="C54" t="s">
-        <v>145</v>
-      </c>
-      <c r="D54" t="s">
-        <v>146</v>
-      </c>
-      <c r="E54">
-        <f t="shared" ca="1" si="0"/>
-        <v>159</v>
-      </c>
-      <c r="F54" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" t="s">
-        <v>147</v>
-      </c>
-      <c r="B55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" t="s">
-        <v>148</v>
-      </c>
-      <c r="D55" t="s">
-        <v>149</v>
-      </c>
-      <c r="E55">
-        <f t="shared" ca="1" si="0"/>
-        <v>942</v>
-      </c>
-      <c r="F55" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" t="s">
-        <v>150</v>
-      </c>
-      <c r="B56" t="s">
-        <v>124</v>
-      </c>
-      <c r="C56" t="s">
-        <v>151</v>
-      </c>
-      <c r="D56" t="s">
-        <v>152</v>
-      </c>
-      <c r="E56">
-        <f t="shared" ca="1" si="0"/>
-        <v>551</v>
-      </c>
-      <c r="F56" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>154</v>
-      </c>
-      <c r="B57" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57" t="s">
-        <v>155</v>
-      </c>
-      <c r="D57" t="s">
-        <v>212</v>
-      </c>
-      <c r="E57">
-        <f t="shared" ca="1" si="0"/>
-        <v>954</v>
-      </c>
-      <c r="F57" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
-        <v>157</v>
-      </c>
-      <c r="B58" t="s">
-        <v>47</v>
-      </c>
-      <c r="C58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D58" t="s">
-        <v>213</v>
-      </c>
-      <c r="E58">
-        <f t="shared" ca="1" si="0"/>
-        <v>964</v>
-      </c>
-      <c r="F58" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
-        <v>158</v>
-      </c>
-      <c r="B59" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" t="s">
-        <v>155</v>
-      </c>
-      <c r="D59" t="s">
-        <v>214</v>
-      </c>
-      <c r="E59">
-        <f t="shared" ca="1" si="0"/>
-        <v>542</v>
-      </c>
-      <c r="F59" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
-        <v>160</v>
-      </c>
-      <c r="B60" t="s">
-        <v>159</v>
-      </c>
-      <c r="C60" t="s">
-        <v>161</v>
-      </c>
-      <c r="D60" t="s">
-        <v>187</v>
-      </c>
-      <c r="E60">
-        <f t="shared" ca="1" si="0"/>
-        <v>194</v>
-      </c>
-      <c r="F60" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
-        <v>162</v>
-      </c>
-      <c r="B61" t="s">
-        <v>159</v>
-      </c>
-      <c r="C61" t="s">
-        <v>163</v>
-      </c>
-      <c r="D61" t="s">
-        <v>188</v>
-      </c>
-      <c r="E61">
-        <f t="shared" ca="1" si="0"/>
-        <v>826</v>
-      </c>
-      <c r="F61" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" t="s">
-        <v>164</v>
-      </c>
-      <c r="B62" t="s">
-        <v>159</v>
-      </c>
-      <c r="C62" t="s">
-        <v>165</v>
-      </c>
-      <c r="D62" t="s">
-        <v>189</v>
-      </c>
-      <c r="E62">
-        <f t="shared" ca="1" si="0"/>
-        <v>430</v>
-      </c>
-      <c r="F62" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" t="s">
-        <v>166</v>
-      </c>
-      <c r="B63" t="s">
-        <v>159</v>
-      </c>
-      <c r="C63" t="s">
-        <v>167</v>
-      </c>
-      <c r="D63" t="s">
-        <v>190</v>
-      </c>
-      <c r="E63">
-        <f t="shared" ca="1" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="F63" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
-        <v>168</v>
-      </c>
-      <c r="B64" t="s">
-        <v>159</v>
-      </c>
-      <c r="C64" t="s">
-        <v>169</v>
-      </c>
-      <c r="D64" t="s">
-        <v>191</v>
-      </c>
-      <c r="E64">
-        <f t="shared" ca="1" si="0"/>
-        <v>682</v>
-      </c>
-      <c r="F64" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
-        <v>170</v>
-      </c>
-      <c r="B65" t="s">
-        <v>159</v>
-      </c>
-      <c r="C65" t="s">
-        <v>171</v>
-      </c>
-      <c r="D65" t="s">
-        <v>192</v>
-      </c>
-      <c r="E65">
-        <f t="shared" ca="1" si="0"/>
-        <v>773</v>
-      </c>
-      <c r="F65" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
-        <v>172</v>
-      </c>
-      <c r="B66" t="s">
-        <v>159</v>
-      </c>
-      <c r="C66" t="s">
-        <v>173</v>
-      </c>
-      <c r="D66" t="s">
-        <v>193</v>
-      </c>
-      <c r="E66">
-        <f t="shared" ca="1" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="F66" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
-        <v>174</v>
-      </c>
-      <c r="B67" t="s">
-        <v>159</v>
-      </c>
-      <c r="C67" t="s">
-        <v>175</v>
-      </c>
-      <c r="D67" t="s">
-        <v>194</v>
-      </c>
-      <c r="E67">
-        <f t="shared" ref="E67:E78" ca="1" si="1">RANDBETWEEN(1,1000)</f>
-        <v>970</v>
-      </c>
-      <c r="F67" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" t="s">
-        <v>176</v>
-      </c>
-      <c r="B68" t="s">
-        <v>159</v>
-      </c>
-      <c r="C68" t="s">
-        <v>177</v>
-      </c>
-      <c r="D68" t="s">
-        <v>195</v>
-      </c>
-      <c r="E68">
-        <f t="shared" ca="1" si="1"/>
-        <v>665</v>
-      </c>
-      <c r="F68" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>178</v>
-      </c>
-      <c r="B69" t="s">
-        <v>159</v>
-      </c>
-      <c r="C69" t="s">
-        <v>179</v>
-      </c>
-      <c r="D69" t="s">
-        <v>196</v>
-      </c>
-      <c r="E69">
-        <f t="shared" ca="1" si="1"/>
-        <v>309</v>
-      </c>
-      <c r="F69" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>180</v>
-      </c>
-      <c r="B70" t="s">
-        <v>159</v>
-      </c>
-      <c r="C70" t="s">
-        <v>181</v>
-      </c>
-      <c r="D70" t="s">
-        <v>197</v>
-      </c>
-      <c r="E70">
-        <f t="shared" ca="1" si="1"/>
-        <v>357</v>
-      </c>
-      <c r="F70" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
-        <v>182</v>
-      </c>
-      <c r="B71" t="s">
-        <v>159</v>
-      </c>
-      <c r="C71" t="s">
-        <v>183</v>
-      </c>
-      <c r="D71" t="s">
-        <v>198</v>
-      </c>
-      <c r="E71">
-        <f t="shared" ca="1" si="1"/>
-        <v>805</v>
-      </c>
-      <c r="F71" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" t="s">
-        <v>184</v>
-      </c>
-      <c r="B72" t="s">
-        <v>159</v>
-      </c>
-      <c r="C72" t="s">
-        <v>185</v>
-      </c>
-      <c r="D72" t="s">
-        <v>199</v>
-      </c>
-      <c r="E72">
-        <f t="shared" ca="1" si="1"/>
-        <v>455</v>
-      </c>
-      <c r="F72" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
-        <v>186</v>
-      </c>
-      <c r="B73" t="s">
-        <v>159</v>
-      </c>
-      <c r="C73" t="s">
-        <v>186</v>
-      </c>
-      <c r="D73" t="s">
-        <v>200</v>
-      </c>
-      <c r="E73">
-        <f t="shared" ca="1" si="1"/>
-        <v>718</v>
-      </c>
-      <c r="F73" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" t="s">
-        <v>201</v>
-      </c>
-      <c r="B74" t="s">
-        <v>211</v>
-      </c>
-      <c r="C74" t="s">
-        <v>156</v>
-      </c>
-      <c r="D74" t="s">
-        <v>202</v>
-      </c>
-      <c r="E74">
-        <f t="shared" ca="1" si="1"/>
-        <v>486</v>
-      </c>
-      <c r="F74" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" t="s">
-        <v>203</v>
-      </c>
-      <c r="B75" t="s">
-        <v>211</v>
-      </c>
-      <c r="C75" t="s">
-        <v>156</v>
-      </c>
-      <c r="D75" t="s">
-        <v>204</v>
-      </c>
-      <c r="E75">
-        <f t="shared" ca="1" si="1"/>
-        <v>560</v>
-      </c>
-      <c r="F75" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" t="s">
-        <v>205</v>
-      </c>
-      <c r="B76" t="s">
-        <v>211</v>
-      </c>
-      <c r="C76" t="s">
-        <v>156</v>
-      </c>
-      <c r="D76" t="s">
-        <v>206</v>
-      </c>
-      <c r="E76">
-        <f t="shared" ca="1" si="1"/>
-        <v>592</v>
-      </c>
-      <c r="F76" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" t="s">
-        <v>207</v>
-      </c>
-      <c r="B77" t="s">
-        <v>211</v>
-      </c>
-      <c r="C77" t="s">
-        <v>156</v>
-      </c>
-      <c r="D77" t="s">
-        <v>208</v>
-      </c>
-      <c r="E77">
-        <f t="shared" ca="1" si="1"/>
-        <v>252</v>
-      </c>
-      <c r="F77" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" t="s">
-        <v>209</v>
-      </c>
-      <c r="B78" t="s">
-        <v>211</v>
-      </c>
-      <c r="C78" t="s">
-        <v>156</v>
-      </c>
-      <c r="D78" t="s">
-        <v>210</v>
-      </c>
-      <c r="E78">
-        <f t="shared" ca="1" si="1"/>
-        <v>577</v>
-      </c>
-      <c r="F78" t="s">
-        <v>225</v>
+      <c r="F79" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
